--- a/牌效果统计.xlsx
+++ b/牌效果统计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="11775"/>
+    <workbookView windowWidth="27945" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>基础机制：</t>
   </si>
@@ -191,6 +191,195 @@
   </si>
   <si>
     <t>精准</t>
+  </si>
+  <si>
+    <t>鸡煲</t>
+  </si>
+  <si>
+    <t>电球：</t>
+  </si>
+  <si>
+    <t>球状闪电</t>
+  </si>
+  <si>
+    <t>雷霆打击</t>
+  </si>
+  <si>
+    <t>电击</t>
+  </si>
+  <si>
+    <t>暴风雨</t>
+  </si>
+  <si>
+    <t>混沌</t>
+  </si>
+  <si>
+    <t>彩虹</t>
+  </si>
+  <si>
+    <t>静电释放</t>
+  </si>
+  <si>
+    <t>雷暴</t>
+  </si>
+  <si>
+    <t>电动力学</t>
+  </si>
+  <si>
+    <t>冰球：</t>
+  </si>
+  <si>
+    <t>寒流</t>
+  </si>
+  <si>
+    <t>暴雪</t>
+  </si>
+  <si>
+    <t>冷静头脑</t>
+  </si>
+  <si>
+    <t>冰川</t>
+  </si>
+  <si>
+    <t>冰寒</t>
+  </si>
+  <si>
+    <t>黑球：</t>
+  </si>
+  <si>
+    <t>愁云惨淡</t>
+  </si>
+  <si>
+    <t>漆黑</t>
+  </si>
+  <si>
+    <t>集中：</t>
+  </si>
+  <si>
+    <t>跟踪锁定</t>
+  </si>
+  <si>
+    <t>耗尽</t>
+  </si>
+  <si>
+    <t>扩容</t>
+  </si>
+  <si>
+    <t>碎片整理</t>
+  </si>
+  <si>
+    <t>偏差认知</t>
+  </si>
+  <si>
+    <t>物理：</t>
+  </si>
+  <si>
+    <t>爪击</t>
+  </si>
+  <si>
+    <t>万物一心</t>
+  </si>
+  <si>
+    <t>重编程</t>
+  </si>
+  <si>
+    <t>观者</t>
+  </si>
+  <si>
+    <t>愤怒：</t>
+  </si>
+  <si>
+    <t>暴怒</t>
+  </si>
+  <si>
+    <t>发泄</t>
+  </si>
+  <si>
+    <t>义愤填膺</t>
+  </si>
+  <si>
+    <t>怒火中烧</t>
+  </si>
+  <si>
+    <t>渐强</t>
+  </si>
+  <si>
+    <t>猛虎下山</t>
+  </si>
+  <si>
+    <t>平静：</t>
+  </si>
+  <si>
+    <t>不惧妖邪</t>
+  </si>
+  <si>
+    <t>警惕</t>
+  </si>
+  <si>
+    <t>内心宁静</t>
+  </si>
+  <si>
+    <t>冥想</t>
+  </si>
+  <si>
+    <t>停顿</t>
+  </si>
+  <si>
+    <t>安宁</t>
+  </si>
+  <si>
+    <t>如水</t>
+  </si>
+  <si>
+    <t>姿态：</t>
+  </si>
+  <si>
+    <t>化拳为空</t>
+  </si>
+  <si>
+    <t>疾风连击</t>
+  </si>
+  <si>
+    <t>化体为空</t>
+  </si>
+  <si>
+    <t>化智为空</t>
+  </si>
+  <si>
+    <t>心灵堡垒</t>
+  </si>
+  <si>
+    <t>印记：</t>
+  </si>
+  <si>
+    <t>点穴</t>
+  </si>
+  <si>
+    <t>真言：</t>
+  </si>
+  <si>
+    <t>光辉</t>
+  </si>
+  <si>
+    <t>祈祷</t>
+  </si>
+  <si>
+    <t>敬拜</t>
+  </si>
+  <si>
+    <t>渎神</t>
+  </si>
+  <si>
+    <t>五体投地</t>
+  </si>
+  <si>
+    <t>虔信</t>
+  </si>
+  <si>
+    <t>阿尔法：</t>
+  </si>
+  <si>
+    <t>阿尔法</t>
   </si>
 </sst>
 </file>
@@ -1121,10 +1310,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O9"/>
+  <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1310,6 +1499,233 @@
       </c>
       <c r="F9" t="s">
         <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>62</v>
+      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>71</v>
+      </c>
+      <c r="B13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B15" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" t="s">
+        <v>101</v>
+      </c>
+      <c r="C19" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" t="s">
+        <v>103</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>110</v>
+      </c>
+      <c r="D21" t="s">
+        <v>111</v>
+      </c>
+      <c r="E21" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>113</v>
+      </c>
+      <c r="G21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>

--- a/牌效果统计.xlsx
+++ b/牌效果统计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1058,6 +1058,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1312,7 +1319,7 @@
   <sheetPr/>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" topLeftCell="A7" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
